--- a/RR/Esterni/Piano di Progetto/RISORSE_3_PDC.xlsx
+++ b/RR/Esterni/Piano di Progetto/RISORSE_3_PDC.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="72">
   <si>
     <t>Task Code</t>
   </si>
@@ -28,13 +28,220 @@
   </si>
   <si>
     <t>Ore di lavoro</t>
+  </si>
+  <si>
+    <t>Verificatore</t>
+  </si>
+  <si>
+    <t>Amministratore</t>
+  </si>
+  <si>
+    <t>Responsabile</t>
+  </si>
+  <si>
+    <t>Ruolo</t>
+  </si>
+  <si>
+    <t>RE</t>
+  </si>
+  <si>
+    <t>AM</t>
+  </si>
+  <si>
+    <t>VE</t>
+  </si>
+  <si>
+    <t>Ore totali di lavoro</t>
+  </si>
+  <si>
+    <t>PDC 1</t>
+  </si>
+  <si>
+    <t>Ambiente di Progettazione e Codifica</t>
+  </si>
+  <si>
+    <t>I Periodo</t>
+  </si>
+  <si>
+    <t>II Periodo</t>
+  </si>
+  <si>
+    <t>PDC 2.1</t>
+  </si>
+  <si>
+    <t>Progettazione 1</t>
+  </si>
+  <si>
+    <t>Verifica 1</t>
+  </si>
+  <si>
+    <t>Progettazione 2</t>
+  </si>
+  <si>
+    <t>Verifica 2</t>
+  </si>
+  <si>
+    <t>PDC 2.2</t>
+  </si>
+  <si>
+    <t>PDC 2.3</t>
+  </si>
+  <si>
+    <t>PDC 2.4</t>
+  </si>
+  <si>
+    <t>Progettista</t>
+  </si>
+  <si>
+    <t>PR</t>
+  </si>
+  <si>
+    <t>PROG</t>
+  </si>
+  <si>
+    <t>PDC 3.1</t>
+  </si>
+  <si>
+    <t>PDC 3.2</t>
+  </si>
+  <si>
+    <t>Stesura DdP v1.0</t>
+  </si>
+  <si>
+    <t>Verifica DdP v1.0</t>
+  </si>
+  <si>
+    <t>PDC 4.1</t>
+  </si>
+  <si>
+    <t>Codifica 1</t>
+  </si>
+  <si>
+    <t>Programmatore</t>
+  </si>
+  <si>
+    <t>Codifica 2</t>
+  </si>
+  <si>
+    <t>PDC 4.2</t>
+  </si>
+  <si>
+    <t>PDC 4.3</t>
+  </si>
+  <si>
+    <t>PDC 4.4</t>
+  </si>
+  <si>
+    <t>PDC 5</t>
+  </si>
+  <si>
+    <t>Aggiornamento PdQ v3.0</t>
+  </si>
+  <si>
+    <t>PDC 6</t>
+  </si>
+  <si>
+    <t>Aggiornamento PdP v3.0</t>
+  </si>
+  <si>
+    <t>PDC 7</t>
+  </si>
+  <si>
+    <t>Manuale Utente</t>
+  </si>
+  <si>
+    <t>Costo</t>
+  </si>
+  <si>
+    <t>costo orario</t>
+  </si>
+  <si>
+    <t>Totale</t>
+  </si>
+  <si>
+    <t>Membro</t>
+  </si>
+  <si>
+    <t>Ruolo, ore di lavoro per quel ruolo e compito</t>
+  </si>
+  <si>
+    <t>Begolo Marco</t>
+  </si>
+  <si>
+    <t>Facchin Gabriele</t>
+  </si>
+  <si>
+    <t>Maggiolo Giorgio</t>
+  </si>
+  <si>
+    <t>Cornaglia Alessandro</t>
+  </si>
+  <si>
+    <t>Dalla Pietà Massimo</t>
+  </si>
+  <si>
+    <t>Braghetto Lorenzo</t>
+  </si>
+  <si>
+    <t>Quadrio Giacomo</t>
+  </si>
+  <si>
+    <t>Totale cad</t>
+  </si>
+  <si>
+    <t>Totale ore</t>
+  </si>
+  <si>
+    <t>34 h circa</t>
+  </si>
+  <si>
+    <t>18 h circa</t>
+  </si>
+  <si>
+    <t>RE (11 h) / PR (23 h PDC 2.1)</t>
+  </si>
+  <si>
+    <t>PR 37 h (PDC 2.1)</t>
+  </si>
+  <si>
+    <t>VE 25h (PDC 2.2) / AM 8h (PDC 1)</t>
+  </si>
+  <si>
+    <t>PROG 20 h (PDC 4.1) / VE 12h (PDC 2.4)</t>
+  </si>
+  <si>
+    <t>PR 20 h (PDC 2.3) / PROG 15h (PDC 4.1)</t>
+  </si>
+  <si>
+    <t>PROG 25h (PDC 4.1) / PR 10 h (PDC 2.3)</t>
+  </si>
+  <si>
+    <t>Ore</t>
+  </si>
+  <si>
+    <t>Fase</t>
+  </si>
+  <si>
+    <t>Cornaglia Alessando</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VE </t>
+  </si>
+  <si>
+    <t>tutte</t>
+  </si>
+  <si>
+    <t>PDC 3.2, 5 e 7</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="&quot;€&quot;\ #,##0.00"/>
+  </numFmts>
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -50,6 +257,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -59,7 +274,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="47">
     <border>
       <left/>
       <right/>
@@ -67,18 +282,840 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="76">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="13">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
@@ -368,38 +1405,1550 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:Z44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="Q7" sqref="Q7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="11.5703125" customWidth="1"/>
-    <col min="2" max="2" width="13" customWidth="1"/>
-    <col min="3" max="3" width="9.7109375" customWidth="1"/>
-    <col min="4" max="4" width="13.5703125" customWidth="1"/>
+    <col min="1" max="1" width="14.42578125" customWidth="1"/>
+    <col min="2" max="2" width="35.7109375" customWidth="1"/>
+    <col min="3" max="4" width="16.5703125" customWidth="1"/>
+    <col min="5" max="5" width="11.140625" customWidth="1"/>
+    <col min="6" max="6" width="11.85546875" customWidth="1"/>
+    <col min="7" max="7" width="8.42578125" customWidth="1"/>
+    <col min="8" max="8" width="3" customWidth="1"/>
+    <col min="9" max="9" width="3.7109375" customWidth="1"/>
+    <col min="10" max="10" width="4.42578125" customWidth="1"/>
+    <col min="11" max="11" width="4.140625" customWidth="1"/>
+    <col min="12" max="12" width="4" customWidth="1"/>
+    <col min="13" max="13" width="3.28515625" customWidth="1"/>
+    <col min="14" max="14" width="11.5703125" customWidth="1"/>
+    <col min="15" max="15" width="20.5703125" customWidth="1"/>
+    <col min="16" max="16" width="34.42578125" customWidth="1"/>
+    <col min="17" max="17" width="26.7109375" customWidth="1"/>
+    <col min="20" max="20" width="21.28515625" customWidth="1"/>
+    <col min="21" max="21" width="12.5703125" customWidth="1"/>
+    <col min="22" max="22" width="8.140625" customWidth="1"/>
+    <col min="26" max="26" width="13.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
+    <row r="1" spans="1:18" ht="15.75" thickBot="1">
+      <c r="A1" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="36" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" s="37" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="D2" s="1"/>
+      <c r="H1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L1" t="s">
+        <v>26</v>
+      </c>
+      <c r="O1" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="P1" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q1" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="R1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
+      <c r="A2" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="51">
+        <v>8</v>
+      </c>
+      <c r="E2" s="42"/>
+      <c r="F2" s="24">
+        <f>SUM(D2:E2)</f>
+        <v>8</v>
+      </c>
+      <c r="H2">
+        <f>IF($C2="Responsabile",$F2,0)</f>
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <f>IF($C2="Amministratore",$F2,0)</f>
+        <v>8</v>
+      </c>
+      <c r="J2">
+        <f>IF($C2="Verificatore",$F2,0)</f>
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <f>IF($C2="Progettista",$F2,0)</f>
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <f>IF($C2="Programmatore",$F2,0)</f>
+        <v>0</v>
+      </c>
+      <c r="O2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="P2" s="6">
+        <f>SUM(H2:H109)</f>
+        <v>54</v>
+      </c>
+      <c r="Q2" s="7">
+        <f>P2*R2</f>
+        <v>1620</v>
+      </c>
+      <c r="R2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
+      <c r="A3" s="29"/>
+      <c r="B3" s="17"/>
+      <c r="C3" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="51">
+        <v>2</v>
+      </c>
+      <c r="E3" s="42"/>
+      <c r="F3" s="24">
+        <f t="shared" ref="F3:F24" si="0">SUM(D3:E3)</f>
+        <v>2</v>
+      </c>
+      <c r="H3">
+        <f t="shared" ref="H3:H66" si="1">IF($C3="Responsabile",$F3,0)</f>
+        <v>2</v>
+      </c>
+      <c r="I3">
+        <f t="shared" ref="I3:I66" si="2">IF($C3="Amministratore",$F3,0)</f>
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <f t="shared" ref="J3:J66" si="3">IF($C3="Verificatore",$F3,0)</f>
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <f t="shared" ref="K3:K39" si="4">IF($C3="Progettista",$F3,0)</f>
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <f t="shared" ref="L3:L39" si="5">IF($C3="Programmatore",$F3,0)</f>
+        <v>0</v>
+      </c>
+      <c r="O3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="P3" s="1">
+        <f>SUM(I2:I110)</f>
+        <v>22</v>
+      </c>
+      <c r="Q3" s="3">
+        <f t="shared" ref="Q3:Q6" si="6">P3*R3</f>
+        <v>440</v>
+      </c>
+      <c r="R3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
+      <c r="A4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" s="52">
+        <v>60</v>
+      </c>
+      <c r="E4" s="73"/>
+      <c r="F4" s="30">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="H4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <f t="shared" si="4"/>
+        <v>60</v>
+      </c>
+      <c r="L4">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="O4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="P4" s="1">
+        <f>SUM(J2:J112)</f>
+        <v>208</v>
+      </c>
+      <c r="Q4" s="3">
+        <f t="shared" si="6"/>
+        <v>3120</v>
+      </c>
+      <c r="R4">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
+      <c r="A5" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="28" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" s="51">
+        <v>25</v>
+      </c>
+      <c r="E5" s="42"/>
+      <c r="F5" s="24">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="H5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <f t="shared" si="3"/>
+        <v>25</v>
+      </c>
+      <c r="K5">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="O5" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="P5" s="1">
+        <f>SUM(K2:K113)</f>
+        <v>234</v>
+      </c>
+      <c r="Q5" s="3">
+        <f t="shared" si="6"/>
+        <v>5148</v>
+      </c>
+      <c r="R5">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" ht="15.75" thickBot="1">
+      <c r="A6" s="29"/>
+      <c r="B6" s="17"/>
+      <c r="C6" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="51">
+        <v>2</v>
+      </c>
+      <c r="E6" s="42"/>
+      <c r="F6" s="24">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="H6">
+        <f>IF($C6="Responsabile",$F6,0)</f>
+        <v>2</v>
+      </c>
+      <c r="I6">
+        <f>IF($C6="Amministratore",$F6,0)</f>
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <f>IF($C6="Verificatore",$F6,0)</f>
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="O6" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="P6" s="12">
+        <f>SUM(L2:L114)</f>
+        <v>200</v>
+      </c>
+      <c r="Q6" s="13">
+        <f t="shared" si="6"/>
+        <v>3000</v>
+      </c>
+      <c r="R6">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" ht="15.75" thickBot="1">
+      <c r="A7" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" s="52">
+        <v>30</v>
+      </c>
+      <c r="E7" s="73"/>
+      <c r="F7" s="30">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="H7">
+        <f>IF($C7="Responsabile",$F7,0)</f>
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <f>IF($C7="Amministratore",$F7,0)</f>
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <f>IF($C7="Verificatore",$F7,0)</f>
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <f t="shared" si="4"/>
+        <v>30</v>
+      </c>
+      <c r="L7">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="O7" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="P7" s="15">
+        <f>SUM(P2:P6)</f>
+        <v>718</v>
+      </c>
+      <c r="Q7" s="16">
+        <f>SUM(Q2:Q6)</f>
+        <v>13328</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
+      <c r="A8" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="28" t="s">
+        <v>4</v>
+      </c>
+      <c r="D8" s="51">
+        <v>12</v>
+      </c>
+      <c r="E8" s="42"/>
+      <c r="F8" s="24">
+        <f>SUM(D8:E8)</f>
+        <v>12</v>
+      </c>
+      <c r="H8">
+        <f>IF($C8="Responsabile",$F8,0)</f>
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <f>IF($C8="Amministratore",$F8,0)</f>
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <f>IF($C8="Verificatore",$F8,0)</f>
+        <v>12</v>
+      </c>
+      <c r="K8">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
+      <c r="A9" s="29"/>
+      <c r="B9" s="17"/>
+      <c r="C9" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" s="51">
+        <v>4</v>
+      </c>
+      <c r="E9" s="42"/>
+      <c r="F9" s="24">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="I9">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
+      <c r="A10" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="B10" s="26" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" s="53"/>
+      <c r="E10" s="74">
+        <v>15</v>
+      </c>
+      <c r="F10" s="31">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <f t="shared" si="4"/>
+        <v>15</v>
+      </c>
+      <c r="L10">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" ht="15.75" thickBot="1">
+      <c r="A11" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="D11" s="53"/>
+      <c r="E11" s="74">
+        <v>5</v>
+      </c>
+      <c r="F11" s="31">
+        <f t="shared" ref="F11:F26" si="7">SUM(D11:E11)</f>
+        <v>5</v>
+      </c>
+      <c r="H11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="K11">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
+      <c r="A12" s="5"/>
+      <c r="B12" s="27"/>
+      <c r="C12" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D12" s="54"/>
+      <c r="E12" s="75">
+        <v>1</v>
+      </c>
+      <c r="F12" s="32">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="H12">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="I12">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="O12" s="40" t="s">
+        <v>47</v>
+      </c>
+      <c r="P12" s="38" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q12" s="39"/>
+    </row>
+    <row r="13" spans="1:18" ht="15.75" thickBot="1">
+      <c r="A13" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B13" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D13" s="52">
+        <v>60</v>
+      </c>
+      <c r="E13" s="73"/>
+      <c r="F13" s="30">
+        <f t="shared" si="7"/>
+        <v>60</v>
+      </c>
+      <c r="H13">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <f t="shared" si="5"/>
+        <v>60</v>
+      </c>
+      <c r="O13" s="41"/>
+      <c r="P13" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q13" s="21" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
+      <c r="A14" s="29" t="s">
+        <v>35</v>
+      </c>
+      <c r="B14" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14" s="28" t="s">
+        <v>4</v>
+      </c>
+      <c r="D14" s="51">
+        <v>30</v>
+      </c>
+      <c r="E14" s="42"/>
+      <c r="F14" s="24">
+        <f t="shared" si="7"/>
+        <v>30</v>
+      </c>
+      <c r="H14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <f t="shared" si="3"/>
+        <v>30</v>
+      </c>
+      <c r="K14">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="O14" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="P14" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q14" s="23"/>
+    </row>
+    <row r="15" spans="1:18">
+      <c r="A15" s="33"/>
+      <c r="B15" s="17"/>
+      <c r="C15" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="D15" s="51">
+        <v>3</v>
+      </c>
+      <c r="E15" s="42"/>
+      <c r="F15" s="24">
+        <f t="shared" si="7"/>
+        <v>3</v>
+      </c>
+      <c r="H15">
+        <f t="shared" ref="H15:H20" si="8">IF($C15="Responsabile",$F15,0)</f>
+        <v>3</v>
+      </c>
+      <c r="I15">
+        <f t="shared" ref="I15:I20" si="9">IF($C15="Amministratore",$F15,0)</f>
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <f t="shared" ref="J15:J20" si="10">IF($C15="Verificatore",$F15,0)</f>
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="O15" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="P15" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q15" s="20"/>
+    </row>
+    <row r="16" spans="1:18">
+      <c r="A16" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B16" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D16" s="52"/>
+      <c r="E16" s="73">
+        <v>40</v>
+      </c>
+      <c r="F16" s="30">
+        <f t="shared" si="7"/>
+        <v>40</v>
+      </c>
+      <c r="H16">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="L16">
+        <f t="shared" si="5"/>
+        <v>40</v>
+      </c>
+      <c r="O16" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="P16" s="1"/>
+      <c r="Q16" s="20"/>
+    </row>
+    <row r="17" spans="1:26">
+      <c r="A17" s="29" t="s">
+        <v>37</v>
+      </c>
+      <c r="B17" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17" s="28" t="s">
+        <v>4</v>
+      </c>
+      <c r="D17" s="17"/>
+      <c r="E17" s="42">
+        <v>20</v>
+      </c>
+      <c r="F17" s="24">
+        <f t="shared" si="7"/>
+        <v>20</v>
+      </c>
+      <c r="H17">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <f t="shared" si="10"/>
+        <v>20</v>
+      </c>
+      <c r="K17">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="O17" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="P17" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q17" s="20"/>
+    </row>
+    <row r="18" spans="1:26">
+      <c r="A18" s="29"/>
+      <c r="B18" s="17"/>
+      <c r="C18" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="D18" s="17"/>
+      <c r="E18" s="42">
+        <v>2</v>
+      </c>
+      <c r="F18" s="24">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="H18">
+        <f t="shared" si="8"/>
+        <v>2</v>
+      </c>
+      <c r="I18">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="O18" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="P18" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q18" s="20"/>
+    </row>
+    <row r="19" spans="1:26">
+      <c r="A19" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="B19" s="26" t="s">
+        <v>39</v>
+      </c>
+      <c r="C19" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="D19" s="26"/>
+      <c r="E19" s="74">
+        <v>4</v>
+      </c>
+      <c r="F19" s="31">
+        <f t="shared" si="7"/>
+        <v>4</v>
+      </c>
+      <c r="H19">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <f t="shared" si="10"/>
+        <v>4</v>
+      </c>
+      <c r="K19">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="O19" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="P19" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q19" s="20"/>
+    </row>
+    <row r="20" spans="1:26" ht="15.75" thickBot="1">
+      <c r="A20" s="5"/>
+      <c r="B20" s="27"/>
+      <c r="C20" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D20" s="27"/>
+      <c r="E20" s="75">
+        <v>8</v>
+      </c>
+      <c r="F20" s="32">
+        <f t="shared" si="7"/>
+        <v>8</v>
+      </c>
+      <c r="H20">
+        <f t="shared" si="8"/>
+        <v>8</v>
+      </c>
+      <c r="I20">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="K20">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="L20">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="O20" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="P20" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q20" s="22"/>
+    </row>
+    <row r="21" spans="1:26" ht="15.75" thickBot="1">
+      <c r="A21" s="29" t="s">
+        <v>40</v>
+      </c>
+      <c r="B21" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="C21" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="D21" s="17"/>
+      <c r="E21" s="42">
+        <v>4</v>
+      </c>
+      <c r="F21" s="24">
+        <f t="shared" si="7"/>
+        <v>4</v>
+      </c>
+      <c r="H21">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="I21">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K21">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="L21">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="O21" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="P21" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q21" s="10" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="22" spans="1:26">
+      <c r="A22" s="29"/>
+      <c r="B22" s="17"/>
+      <c r="C22" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="D22" s="17"/>
+      <c r="E22" s="42">
+        <v>1</v>
+      </c>
+      <c r="F22" s="24">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="H22">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="J22">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K22">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="L22">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:26">
+      <c r="A23" s="44" t="s">
+        <v>42</v>
+      </c>
+      <c r="B23" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="C23" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D23" s="26"/>
+      <c r="E23" s="74">
+        <v>12</v>
+      </c>
+      <c r="F23" s="34">
+        <f t="shared" si="7"/>
+        <v>12</v>
+      </c>
+      <c r="H23">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K23">
+        <f t="shared" si="4"/>
+        <v>12</v>
+      </c>
+      <c r="L23">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:26">
+      <c r="A24" s="45"/>
+      <c r="B24" s="28"/>
+      <c r="C24" s="42" t="s">
+        <v>4</v>
+      </c>
+      <c r="D24" s="17"/>
+      <c r="E24" s="42">
+        <v>8</v>
+      </c>
+      <c r="F24" s="43">
+        <f t="shared" si="7"/>
+        <v>8</v>
+      </c>
+      <c r="H24">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I24">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <f t="shared" si="3"/>
+        <v>8</v>
+      </c>
+      <c r="K24">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="L24">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:26">
+      <c r="A25" s="45"/>
+      <c r="B25" s="28"/>
+      <c r="C25" s="42" t="s">
+        <v>5</v>
+      </c>
+      <c r="D25" s="17"/>
+      <c r="E25" s="42">
+        <v>2</v>
+      </c>
+      <c r="F25" s="43">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="H25">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I25">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="J25">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K25">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="L25">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:26" ht="15.75" thickBot="1">
+      <c r="A26" s="46"/>
+      <c r="B26" s="35"/>
+      <c r="C26" s="47" t="s">
+        <v>6</v>
+      </c>
+      <c r="D26" s="18"/>
+      <c r="E26" s="47">
+        <v>1</v>
+      </c>
+      <c r="F26" s="48">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="H26">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="I26">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J26">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K26">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="L26">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:26" ht="15.75" thickBot="1">
+      <c r="T27" s="58" t="s">
+        <v>47</v>
+      </c>
+      <c r="U27" s="40" t="s">
+        <v>14</v>
+      </c>
+      <c r="V27" s="38"/>
+      <c r="W27" s="39"/>
+      <c r="X27" s="40" t="s">
+        <v>15</v>
+      </c>
+      <c r="Y27" s="38"/>
+      <c r="Z27" s="39"/>
+    </row>
+    <row r="28" spans="1:26" ht="15.75" thickBot="1">
+      <c r="A28" s="49" t="s">
+        <v>57</v>
+      </c>
+      <c r="B28" s="36"/>
+      <c r="C28" s="36"/>
+      <c r="D28" s="50">
+        <f>SUM(D2:D26)</f>
+        <v>236</v>
+      </c>
+      <c r="E28" s="36">
+        <f>SUM(E2:E26)</f>
+        <v>123</v>
+      </c>
+      <c r="F28" s="50">
+        <f>SUM(D28:E28)</f>
+        <v>359</v>
+      </c>
+      <c r="H28">
+        <f>SUM(H2:H26)</f>
+        <v>27</v>
+      </c>
+      <c r="I28">
+        <f t="shared" ref="I28:L28" si="11">SUM(I2:I26)</f>
+        <v>11</v>
+      </c>
+      <c r="J28">
+        <f t="shared" si="11"/>
+        <v>104</v>
+      </c>
+      <c r="K28">
+        <f t="shared" si="11"/>
+        <v>117</v>
+      </c>
+      <c r="L28">
+        <f t="shared" si="11"/>
+        <v>100</v>
+      </c>
+      <c r="T28" s="59"/>
+      <c r="U28" s="68" t="s">
+        <v>7</v>
+      </c>
+      <c r="V28" s="69" t="s">
+        <v>66</v>
+      </c>
+      <c r="W28" s="70" t="s">
+        <v>67</v>
+      </c>
+      <c r="X28" s="68" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y28" s="69" t="s">
+        <v>66</v>
+      </c>
+      <c r="Z28" s="70" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="29" spans="1:26">
+      <c r="T29" s="60" t="s">
+        <v>49</v>
+      </c>
+      <c r="U29" s="45" t="s">
+        <v>25</v>
+      </c>
+      <c r="V29" s="64">
+        <v>36</v>
+      </c>
+      <c r="W29" s="56" t="s">
+        <v>16</v>
+      </c>
+      <c r="X29" s="45" t="s">
+        <v>10</v>
+      </c>
+      <c r="Y29" s="64">
+        <v>10</v>
+      </c>
+      <c r="Z29" s="56" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="30" spans="1:26">
+      <c r="T30" s="61"/>
+      <c r="U30" s="57"/>
+      <c r="V30" s="65"/>
+      <c r="W30" s="55"/>
+      <c r="X30" s="57" t="s">
+        <v>25</v>
+      </c>
+      <c r="Y30" s="65">
+        <v>6</v>
+      </c>
+      <c r="Z30" s="55" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="31" spans="1:26">
+      <c r="T31" s="60" t="s">
+        <v>50</v>
+      </c>
+      <c r="U31" s="45" t="s">
+        <v>10</v>
+      </c>
+      <c r="V31" s="64">
+        <v>25</v>
+      </c>
+      <c r="W31" s="56" t="s">
+        <v>21</v>
+      </c>
+      <c r="X31" s="45" t="s">
+        <v>25</v>
+      </c>
+      <c r="Y31" s="64">
+        <v>15</v>
+      </c>
+      <c r="Z31" s="56" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="32" spans="1:26">
+      <c r="T32" s="60"/>
+      <c r="U32" s="45" t="s">
+        <v>9</v>
+      </c>
+      <c r="V32" s="64">
+        <v>8</v>
+      </c>
+      <c r="W32" s="56" t="s">
+        <v>12</v>
+      </c>
+      <c r="X32" s="45" t="s">
+        <v>26</v>
+      </c>
+      <c r="Y32" s="64">
+        <v>4</v>
+      </c>
+      <c r="Z32" s="56" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="33" spans="20:26">
+      <c r="T33" s="62" t="s">
+        <v>68</v>
+      </c>
+      <c r="U33" s="44" t="s">
+        <v>26</v>
+      </c>
+      <c r="V33" s="66">
+        <v>20</v>
+      </c>
+      <c r="W33" s="34" t="s">
+        <v>31</v>
+      </c>
+      <c r="X33" s="44" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y33" s="66">
+        <v>16</v>
+      </c>
+      <c r="Z33" s="72" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="34" spans="20:26">
+      <c r="T34" s="61"/>
+      <c r="U34" s="57" t="s">
+        <v>69</v>
+      </c>
+      <c r="V34" s="65">
+        <v>12</v>
+      </c>
+      <c r="W34" s="55" t="s">
+        <v>23</v>
+      </c>
+      <c r="X34" s="57"/>
+      <c r="Y34" s="65"/>
+      <c r="Z34" s="55"/>
+    </row>
+    <row r="35" spans="20:26">
+      <c r="T35" s="60" t="s">
+        <v>53</v>
+      </c>
+      <c r="U35" s="45" t="s">
+        <v>8</v>
+      </c>
+      <c r="V35" s="64">
+        <v>11</v>
+      </c>
+      <c r="W35" s="71" t="s">
+        <v>70</v>
+      </c>
+      <c r="X35" s="45" t="s">
+        <v>26</v>
+      </c>
+      <c r="Y35" s="64">
+        <v>18</v>
+      </c>
+      <c r="Z35" s="56" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="36" spans="20:26">
+      <c r="T36" s="60"/>
+      <c r="U36" s="45" t="s">
+        <v>25</v>
+      </c>
+      <c r="V36" s="64">
+        <v>24</v>
+      </c>
+      <c r="W36" s="56" t="s">
+        <v>16</v>
+      </c>
+      <c r="X36" s="45"/>
+      <c r="Y36" s="64"/>
+      <c r="Z36" s="56"/>
+    </row>
+    <row r="37" spans="20:26">
+      <c r="T37" s="62" t="s">
+        <v>54</v>
+      </c>
+      <c r="U37" s="44" t="s">
+        <v>25</v>
+      </c>
+      <c r="V37" s="66">
+        <v>20</v>
+      </c>
+      <c r="W37" s="34" t="s">
+        <v>22</v>
+      </c>
+      <c r="X37" s="44" t="s">
+        <v>10</v>
+      </c>
+      <c r="Y37" s="66">
+        <v>10</v>
+      </c>
+      <c r="Z37" s="34" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="38" spans="20:26">
+      <c r="T38" s="61"/>
+      <c r="U38" s="57" t="s">
+        <v>26</v>
+      </c>
+      <c r="V38" s="65">
+        <v>15</v>
+      </c>
+      <c r="W38" s="55" t="s">
+        <v>31</v>
+      </c>
+      <c r="X38" s="57" t="s">
+        <v>25</v>
+      </c>
+      <c r="Y38" s="65">
+        <v>6</v>
+      </c>
+      <c r="Z38" s="55" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="39" spans="20:26">
+      <c r="T39" s="60" t="s">
+        <v>55</v>
+      </c>
+      <c r="U39" s="45" t="s">
+        <v>26</v>
+      </c>
+      <c r="V39" s="64">
+        <v>25</v>
+      </c>
+      <c r="W39" s="56" t="s">
+        <v>31</v>
+      </c>
+      <c r="X39" s="45" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y39" s="64">
+        <v>3</v>
+      </c>
+      <c r="Z39" s="71" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="40" spans="20:26">
+      <c r="T40" s="60"/>
+      <c r="U40" s="45" t="s">
+        <v>25</v>
+      </c>
+      <c r="V40" s="64">
+        <v>10</v>
+      </c>
+      <c r="W40" s="56" t="s">
+        <v>22</v>
+      </c>
+      <c r="X40" s="45" t="s">
+        <v>10</v>
+      </c>
+      <c r="Y40" s="64">
+        <v>17</v>
+      </c>
+      <c r="Z40" s="56" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="41" spans="20:26">
+      <c r="T41" s="62" t="s">
+        <v>51</v>
+      </c>
+      <c r="U41" s="44" t="s">
+        <v>10</v>
+      </c>
+      <c r="V41" s="66">
+        <v>30</v>
+      </c>
+      <c r="W41" s="34" t="s">
+        <v>35</v>
+      </c>
+      <c r="X41" s="44" t="s">
+        <v>26</v>
+      </c>
+      <c r="Y41" s="66">
+        <v>18</v>
+      </c>
+      <c r="Z41" s="34" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="42" spans="20:26" ht="15.75" thickBot="1">
+      <c r="T42" s="63"/>
+      <c r="U42" s="46"/>
+      <c r="V42" s="67"/>
+      <c r="W42" s="19"/>
+      <c r="X42" s="46"/>
+      <c r="Y42" s="67"/>
+      <c r="Z42" s="19"/>
+    </row>
+    <row r="44" spans="20:26">
+      <c r="V44">
+        <f>SUM(V29:V41)</f>
+        <v>236</v>
+      </c>
+      <c r="Y44">
+        <f>SUM(Y29:Y42)</f>
+        <v>123</v>
+      </c>
     </row>
   </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="P12:Q12"/>
+    <mergeCell ref="O12:O13"/>
+    <mergeCell ref="U27:W27"/>
+    <mergeCell ref="X27:Z27"/>
+    <mergeCell ref="T27:T28"/>
+  </mergeCells>
+  <conditionalFormatting sqref="Y44">
+    <cfRule type="cellIs" dxfId="7" priority="4" operator="equal">
+      <formula>$E$28</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="3" operator="notEqual">
+      <formula>$E$28</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="V44">
+    <cfRule type="cellIs" dxfId="4" priority="2" operator="equal">
+      <formula>$D$28</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="5" priority="1" operator="notEqual">
+      <formula>$D$28</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/RR/Esterni/Piano di Progetto/RISORSE_3_PDC.xlsx
+++ b/RR/Esterni/Piano di Progetto/RISORSE_3_PDC.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="61">
   <si>
     <t>Task Code</t>
   </si>
@@ -162,9 +162,6 @@
     <t>Membro</t>
   </si>
   <si>
-    <t>Ruolo, ore di lavoro per quel ruolo e compito</t>
-  </si>
-  <si>
     <t>Begolo Marco</t>
   </si>
   <si>
@@ -174,9 +171,6 @@
     <t>Maggiolo Giorgio</t>
   </si>
   <si>
-    <t>Cornaglia Alessandro</t>
-  </si>
-  <si>
     <t>Dalla Pietà Massimo</t>
   </si>
   <si>
@@ -186,34 +180,7 @@
     <t>Quadrio Giacomo</t>
   </si>
   <si>
-    <t>Totale cad</t>
-  </si>
-  <si>
     <t>Totale ore</t>
-  </si>
-  <si>
-    <t>34 h circa</t>
-  </si>
-  <si>
-    <t>18 h circa</t>
-  </si>
-  <si>
-    <t>RE (11 h) / PR (23 h PDC 2.1)</t>
-  </si>
-  <si>
-    <t>PR 37 h (PDC 2.1)</t>
-  </si>
-  <si>
-    <t>VE 25h (PDC 2.2) / AM 8h (PDC 1)</t>
-  </si>
-  <si>
-    <t>PROG 20 h (PDC 4.1) / VE 12h (PDC 2.4)</t>
-  </si>
-  <si>
-    <t>PR 20 h (PDC 2.3) / PROG 15h (PDC 4.1)</t>
-  </si>
-  <si>
-    <t>PROG 25h (PDC 4.1) / PR 10 h (PDC 2.3)</t>
   </si>
   <si>
     <t>Ore</t>
@@ -872,7 +839,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="76">
+  <cellXfs count="81">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
@@ -909,20 +876,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1"/>
@@ -930,8 +883,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFill="1" applyBorder="1"/>
@@ -939,12 +890,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1"/>
@@ -961,15 +906,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -979,46 +915,57 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="13">
+  <dxfs count="4">
     <dxf>
       <fill>
         <patternFill>
           <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1042,13 +989,6 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
         <condense val="0"/>
         <extend val="0"/>
@@ -1057,61 +997,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1407,8 +1292,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Z44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q7" sqref="Q7"/>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1436,22 +1321,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="15.75" thickBot="1">
-      <c r="A1" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="36" t="s">
+      <c r="A1" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="67" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="36" t="s">
+      <c r="D1" s="67" t="s">
         <v>14</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="F1" s="37" t="s">
+      <c r="F1" s="68" t="s">
         <v>3</v>
       </c>
       <c r="H1" t="s">
@@ -1469,13 +1354,13 @@
       <c r="L1" t="s">
         <v>26</v>
       </c>
-      <c r="O1" s="8" t="s">
+      <c r="O1" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="P1" s="9" t="s">
+      <c r="P1" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="Q1" s="10" t="s">
+      <c r="Q1" s="69" t="s">
         <v>44</v>
       </c>
       <c r="R1" t="s">
@@ -1492,10 +1377,10 @@
       <c r="C2" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="51">
+      <c r="D2" s="43">
         <v>8</v>
       </c>
-      <c r="E2" s="42"/>
+      <c r="E2" s="36"/>
       <c r="F2" s="24">
         <f>SUM(D2:E2)</f>
         <v>8</v>
@@ -1541,32 +1426,32 @@
       <c r="C3" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="51">
+      <c r="D3" s="43">
         <v>2</v>
       </c>
-      <c r="E3" s="42"/>
+      <c r="E3" s="36"/>
       <c r="F3" s="24">
-        <f t="shared" ref="F3:F24" si="0">SUM(D3:E3)</f>
+        <f t="shared" ref="F3:F10" si="0">SUM(D3:E3)</f>
         <v>2</v>
       </c>
       <c r="H3">
-        <f t="shared" ref="H3:H66" si="1">IF($C3="Responsabile",$F3,0)</f>
+        <f t="shared" ref="H3:H26" si="1">IF($C3="Responsabile",$F3,0)</f>
         <v>2</v>
       </c>
       <c r="I3">
-        <f t="shared" ref="I3:I66" si="2">IF($C3="Amministratore",$F3,0)</f>
+        <f t="shared" ref="I3:I26" si="2">IF($C3="Amministratore",$F3,0)</f>
         <v>0</v>
       </c>
       <c r="J3">
-        <f t="shared" ref="J3:J66" si="3">IF($C3="Verificatore",$F3,0)</f>
+        <f t="shared" ref="J3:J26" si="3">IF($C3="Verificatore",$F3,0)</f>
         <v>0</v>
       </c>
       <c r="K3">
-        <f t="shared" ref="K3:K39" si="4">IF($C3="Progettista",$F3,0)</f>
+        <f t="shared" ref="K3:K26" si="4">IF($C3="Progettista",$F3,0)</f>
         <v>0</v>
       </c>
       <c r="L3">
-        <f t="shared" ref="L3:L39" si="5">IF($C3="Programmatore",$F3,0)</f>
+        <f t="shared" ref="L3:L26" si="5">IF($C3="Programmatore",$F3,0)</f>
         <v>0</v>
       </c>
       <c r="O3" s="2" t="s">
@@ -1594,10 +1479,10 @@
       <c r="C4" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D4" s="52">
+      <c r="D4" s="44">
         <v>60</v>
       </c>
-      <c r="E4" s="73"/>
+      <c r="E4" s="60"/>
       <c r="F4" s="30">
         <f t="shared" si="0"/>
         <v>60</v>
@@ -1647,10 +1532,10 @@
       <c r="C5" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="51">
+      <c r="D5" s="43">
         <v>25</v>
       </c>
-      <c r="E5" s="42"/>
+      <c r="E5" s="36"/>
       <c r="F5" s="24">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -1696,10 +1581,10 @@
       <c r="C6" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="51">
+      <c r="D6" s="43">
         <v>2</v>
       </c>
-      <c r="E6" s="42"/>
+      <c r="E6" s="36"/>
       <c r="F6" s="24">
         <f t="shared" si="0"/>
         <v>2</v>
@@ -1749,10 +1634,10 @@
       <c r="C7" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D7" s="52">
+      <c r="D7" s="44">
         <v>30</v>
       </c>
-      <c r="E7" s="73"/>
+      <c r="E7" s="60"/>
       <c r="F7" s="30">
         <f t="shared" si="0"/>
         <v>30</v>
@@ -1799,10 +1684,10 @@
       <c r="C8" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="D8" s="51">
+      <c r="D8" s="43">
         <v>12</v>
       </c>
-      <c r="E8" s="42"/>
+      <c r="E8" s="36"/>
       <c r="F8" s="24">
         <f>SUM(D8:E8)</f>
         <v>12</v>
@@ -1834,10 +1719,10 @@
       <c r="C9" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="D9" s="51">
+      <c r="D9" s="43">
         <v>4</v>
       </c>
-      <c r="E9" s="42"/>
+      <c r="E9" s="36"/>
       <c r="F9" s="24">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -1873,8 +1758,8 @@
       <c r="C10" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="D10" s="53"/>
-      <c r="E10" s="74">
+      <c r="D10" s="45"/>
+      <c r="E10" s="61">
         <v>15</v>
       </c>
       <c r="F10" s="31">
@@ -1912,8 +1797,8 @@
       <c r="C11" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="D11" s="53"/>
-      <c r="E11" s="74">
+      <c r="D11" s="45"/>
+      <c r="E11" s="61">
         <v>5</v>
       </c>
       <c r="F11" s="31">
@@ -1947,8 +1832,8 @@
       <c r="C12" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D12" s="54"/>
-      <c r="E12" s="75">
+      <c r="D12" s="46"/>
+      <c r="E12" s="62">
         <v>1</v>
       </c>
       <c r="F12" s="32">
@@ -1975,13 +1860,9 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="O12" s="40" t="s">
-        <v>47</v>
-      </c>
-      <c r="P12" s="38" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q12" s="39"/>
+      <c r="O12" s="65"/>
+      <c r="P12" s="63"/>
+      <c r="Q12" s="64"/>
     </row>
     <row r="13" spans="1:18" ht="15.75" thickBot="1">
       <c r="A13" s="2" t="s">
@@ -1993,10 +1874,10 @@
       <c r="C13" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D13" s="52">
+      <c r="D13" s="44">
         <v>60</v>
       </c>
-      <c r="E13" s="73"/>
+      <c r="E13" s="60"/>
       <c r="F13" s="30">
         <f t="shared" si="7"/>
         <v>60</v>
@@ -2021,13 +1902,9 @@
         <f t="shared" si="5"/>
         <v>60</v>
       </c>
-      <c r="O13" s="41"/>
-      <c r="P13" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q13" s="21" t="s">
-        <v>15</v>
-      </c>
+      <c r="O13" s="66"/>
+      <c r="P13" s="4"/>
+      <c r="Q13" s="21"/>
     </row>
     <row r="14" spans="1:18">
       <c r="A14" s="29" t="s">
@@ -2039,10 +1916,10 @@
       <c r="C14" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="D14" s="51">
+      <c r="D14" s="43">
         <v>30</v>
       </c>
-      <c r="E14" s="42"/>
+      <c r="E14" s="36"/>
       <c r="F14" s="24">
         <f t="shared" si="7"/>
         <v>30</v>
@@ -2067,12 +1944,8 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="O14" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="P14" s="6" t="s">
-        <v>61</v>
-      </c>
+      <c r="O14" s="5"/>
+      <c r="P14" s="6"/>
       <c r="Q14" s="23"/>
     </row>
     <row r="15" spans="1:18">
@@ -2081,10 +1954,10 @@
       <c r="C15" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="D15" s="51">
+      <c r="D15" s="43">
         <v>3</v>
       </c>
-      <c r="E15" s="42"/>
+      <c r="E15" s="36"/>
       <c r="F15" s="24">
         <f t="shared" si="7"/>
         <v>3</v>
@@ -2109,12 +1982,8 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="O15" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="P15" s="1" t="s">
-        <v>62</v>
-      </c>
+      <c r="O15" s="2"/>
+      <c r="P15" s="1"/>
       <c r="Q15" s="20"/>
     </row>
     <row r="16" spans="1:18">
@@ -2127,8 +1996,8 @@
       <c r="C16" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D16" s="52"/>
-      <c r="E16" s="73">
+      <c r="D16" s="44"/>
+      <c r="E16" s="60">
         <v>40</v>
       </c>
       <c r="F16" s="30">
@@ -2155,9 +2024,7 @@
         <f t="shared" si="5"/>
         <v>40</v>
       </c>
-      <c r="O16" s="2" t="s">
-        <v>51</v>
-      </c>
+      <c r="O16" s="2"/>
       <c r="P16" s="1"/>
       <c r="Q16" s="20"/>
     </row>
@@ -2172,7 +2039,7 @@
         <v>4</v>
       </c>
       <c r="D17" s="17"/>
-      <c r="E17" s="42">
+      <c r="E17" s="36">
         <v>20</v>
       </c>
       <c r="F17" s="24">
@@ -2199,12 +2066,8 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="O17" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="P17" s="1" t="s">
-        <v>63</v>
-      </c>
+      <c r="O17" s="2"/>
+      <c r="P17" s="1"/>
       <c r="Q17" s="20"/>
     </row>
     <row r="18" spans="1:26">
@@ -2214,7 +2077,7 @@
         <v>6</v>
       </c>
       <c r="D18" s="17"/>
-      <c r="E18" s="42">
+      <c r="E18" s="36">
         <v>2</v>
       </c>
       <c r="F18" s="24">
@@ -2241,12 +2104,8 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="O18" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="P18" s="1" t="s">
-        <v>60</v>
-      </c>
+      <c r="O18" s="2"/>
+      <c r="P18" s="1"/>
       <c r="Q18" s="20"/>
     </row>
     <row r="19" spans="1:26">
@@ -2260,7 +2119,7 @@
         <v>4</v>
       </c>
       <c r="D19" s="26"/>
-      <c r="E19" s="74">
+      <c r="E19" s="61">
         <v>4</v>
       </c>
       <c r="F19" s="31">
@@ -2287,12 +2146,8 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="O19" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="P19" s="1" t="s">
-        <v>64</v>
-      </c>
+      <c r="O19" s="2"/>
+      <c r="P19" s="1"/>
       <c r="Q19" s="20"/>
     </row>
     <row r="20" spans="1:26" ht="15.75" thickBot="1">
@@ -2302,7 +2157,7 @@
         <v>6</v>
       </c>
       <c r="D20" s="27"/>
-      <c r="E20" s="75">
+      <c r="E20" s="62">
         <v>8</v>
       </c>
       <c r="F20" s="32">
@@ -2329,12 +2184,8 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="O20" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="P20" s="12" t="s">
-        <v>65</v>
-      </c>
+      <c r="O20" s="11"/>
+      <c r="P20" s="12"/>
       <c r="Q20" s="22"/>
     </row>
     <row r="21" spans="1:26" ht="15.75" thickBot="1">
@@ -2348,7 +2199,7 @@
         <v>6</v>
       </c>
       <c r="D21" s="17"/>
-      <c r="E21" s="42">
+      <c r="E21" s="36">
         <v>4</v>
       </c>
       <c r="F21" s="24">
@@ -2375,15 +2226,9 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="O21" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="P21" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q21" s="10" t="s">
-        <v>59</v>
-      </c>
+      <c r="O21" s="8"/>
+      <c r="P21" s="9"/>
+      <c r="Q21" s="10"/>
     </row>
     <row r="22" spans="1:26">
       <c r="A22" s="29"/>
@@ -2392,7 +2237,7 @@
         <v>5</v>
       </c>
       <c r="D22" s="17"/>
-      <c r="E22" s="42">
+      <c r="E22" s="36">
         <v>1</v>
       </c>
       <c r="F22" s="24">
@@ -2421,7 +2266,7 @@
       </c>
     </row>
     <row r="23" spans="1:26">
-      <c r="A23" s="44" t="s">
+      <c r="A23" s="38" t="s">
         <v>42</v>
       </c>
       <c r="B23" s="12" t="s">
@@ -2431,7 +2276,7 @@
         <v>24</v>
       </c>
       <c r="D23" s="26"/>
-      <c r="E23" s="74">
+      <c r="E23" s="61">
         <v>12</v>
       </c>
       <c r="F23" s="34">
@@ -2460,16 +2305,16 @@
       </c>
     </row>
     <row r="24" spans="1:26">
-      <c r="A24" s="45"/>
+      <c r="A24" s="39"/>
       <c r="B24" s="28"/>
-      <c r="C24" s="42" t="s">
+      <c r="C24" s="36" t="s">
         <v>4</v>
       </c>
       <c r="D24" s="17"/>
-      <c r="E24" s="42">
+      <c r="E24" s="36">
         <v>8</v>
       </c>
-      <c r="F24" s="43">
+      <c r="F24" s="37">
         <f t="shared" si="7"/>
         <v>8</v>
       </c>
@@ -2495,16 +2340,16 @@
       </c>
     </row>
     <row r="25" spans="1:26">
-      <c r="A25" s="45"/>
+      <c r="A25" s="39"/>
       <c r="B25" s="28"/>
-      <c r="C25" s="42" t="s">
+      <c r="C25" s="36" t="s">
         <v>5</v>
       </c>
       <c r="D25" s="17"/>
-      <c r="E25" s="42">
+      <c r="E25" s="36">
         <v>2</v>
       </c>
-      <c r="F25" s="43">
+      <c r="F25" s="37">
         <f t="shared" si="7"/>
         <v>2</v>
       </c>
@@ -2530,16 +2375,16 @@
       </c>
     </row>
     <row r="26" spans="1:26" ht="15.75" thickBot="1">
-      <c r="A26" s="46"/>
+      <c r="A26" s="40"/>
       <c r="B26" s="35"/>
-      <c r="C26" s="47" t="s">
+      <c r="C26" s="41" t="s">
         <v>6</v>
       </c>
       <c r="D26" s="18"/>
-      <c r="E26" s="47">
+      <c r="E26" s="41">
         <v>1</v>
       </c>
-      <c r="F26" s="48">
+      <c r="F26" s="42">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
@@ -2565,35 +2410,35 @@
       </c>
     </row>
     <row r="27" spans="1:26" ht="15.75" thickBot="1">
-      <c r="T27" s="58" t="s">
+      <c r="T27" s="70" t="s">
         <v>47</v>
       </c>
-      <c r="U27" s="40" t="s">
+      <c r="U27" s="71" t="s">
         <v>14</v>
       </c>
-      <c r="V27" s="38"/>
-      <c r="W27" s="39"/>
-      <c r="X27" s="40" t="s">
+      <c r="V27" s="72"/>
+      <c r="W27" s="73"/>
+      <c r="X27" s="71" t="s">
         <v>15</v>
       </c>
-      <c r="Y27" s="38"/>
-      <c r="Z27" s="39"/>
+      <c r="Y27" s="72"/>
+      <c r="Z27" s="73"/>
     </row>
     <row r="28" spans="1:26" ht="15.75" thickBot="1">
-      <c r="A28" s="49" t="s">
-        <v>57</v>
-      </c>
-      <c r="B28" s="36"/>
-      <c r="C28" s="36"/>
-      <c r="D28" s="50">
+      <c r="A28" s="78" t="s">
+        <v>54</v>
+      </c>
+      <c r="B28" s="67"/>
+      <c r="C28" s="67"/>
+      <c r="D28" s="79">
         <f>SUM(D2:D26)</f>
         <v>236</v>
       </c>
-      <c r="E28" s="36">
+      <c r="E28" s="67">
         <f>SUM(E2:E26)</f>
         <v>123</v>
       </c>
-      <c r="F28" s="50">
+      <c r="F28" s="79">
         <f>SUM(D28:E28)</f>
         <v>359</v>
       </c>
@@ -2617,201 +2462,202 @@
         <f t="shared" si="11"/>
         <v>100</v>
       </c>
-      <c r="T28" s="59"/>
-      <c r="U28" s="68" t="s">
+      <c r="T28" s="74"/>
+      <c r="U28" s="75" t="s">
         <v>7</v>
       </c>
-      <c r="V28" s="69" t="s">
-        <v>66</v>
-      </c>
-      <c r="W28" s="70" t="s">
-        <v>67</v>
-      </c>
-      <c r="X28" s="68" t="s">
+      <c r="V28" s="76" t="s">
+        <v>55</v>
+      </c>
+      <c r="W28" s="77" t="s">
+        <v>56</v>
+      </c>
+      <c r="X28" s="75" t="s">
         <v>7</v>
       </c>
-      <c r="Y28" s="69" t="s">
-        <v>66</v>
-      </c>
-      <c r="Z28" s="70" t="s">
-        <v>67</v>
+      <c r="Y28" s="76" t="s">
+        <v>55</v>
+      </c>
+      <c r="Z28" s="77" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="29" spans="1:26">
-      <c r="T29" s="60" t="s">
+      <c r="T29" s="50" t="s">
+        <v>48</v>
+      </c>
+      <c r="U29" s="39" t="s">
+        <v>25</v>
+      </c>
+      <c r="V29" s="54">
+        <v>36</v>
+      </c>
+      <c r="W29" s="48" t="s">
+        <v>16</v>
+      </c>
+      <c r="X29" s="39" t="s">
+        <v>10</v>
+      </c>
+      <c r="Y29" s="54">
+        <v>10</v>
+      </c>
+      <c r="Z29" s="48" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="30" spans="1:26">
+      <c r="T30" s="51"/>
+      <c r="U30" s="49"/>
+      <c r="V30" s="55"/>
+      <c r="W30" s="47"/>
+      <c r="X30" s="49" t="s">
+        <v>25</v>
+      </c>
+      <c r="Y30" s="55">
+        <v>6</v>
+      </c>
+      <c r="Z30" s="47" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="31" spans="1:26">
+      <c r="T31" s="50" t="s">
         <v>49</v>
       </c>
-      <c r="U29" s="45" t="s">
+      <c r="U31" s="39" t="s">
+        <v>10</v>
+      </c>
+      <c r="V31" s="54">
         <v>25</v>
       </c>
-      <c r="V29" s="64">
+      <c r="W31" s="48" t="s">
+        <v>21</v>
+      </c>
+      <c r="X31" s="39" t="s">
+        <v>25</v>
+      </c>
+      <c r="Y31" s="54">
+        <v>15</v>
+      </c>
+      <c r="Z31" s="48" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="32" spans="1:26">
+      <c r="E32" s="80"/>
+      <c r="T32" s="50"/>
+      <c r="U32" s="39" t="s">
+        <v>9</v>
+      </c>
+      <c r="V32" s="54">
+        <v>8</v>
+      </c>
+      <c r="W32" s="48" t="s">
+        <v>12</v>
+      </c>
+      <c r="X32" s="39" t="s">
+        <v>26</v>
+      </c>
+      <c r="Y32" s="54">
+        <v>4</v>
+      </c>
+      <c r="Z32" s="48" t="s">
         <v>36</v>
       </c>
-      <c r="W29" s="56" t="s">
-        <v>16</v>
-      </c>
-      <c r="X29" s="45" t="s">
-        <v>10</v>
-      </c>
-      <c r="Y29" s="64">
-        <v>10</v>
-      </c>
-      <c r="Z29" s="56" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="30" spans="1:26">
-      <c r="T30" s="61"/>
-      <c r="U30" s="57"/>
-      <c r="V30" s="65"/>
-      <c r="W30" s="55"/>
-      <c r="X30" s="57" t="s">
-        <v>25</v>
-      </c>
-      <c r="Y30" s="65">
-        <v>6</v>
-      </c>
-      <c r="Z30" s="55" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="31" spans="1:26">
-      <c r="T31" s="60" t="s">
-        <v>50</v>
-      </c>
-      <c r="U31" s="45" t="s">
-        <v>10</v>
-      </c>
-      <c r="V31" s="64">
-        <v>25</v>
-      </c>
-      <c r="W31" s="56" t="s">
-        <v>21</v>
-      </c>
-      <c r="X31" s="45" t="s">
-        <v>25</v>
-      </c>
-      <c r="Y31" s="64">
-        <v>15</v>
-      </c>
-      <c r="Z31" s="56" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="32" spans="1:26">
-      <c r="T32" s="60"/>
-      <c r="U32" s="45" t="s">
-        <v>9</v>
-      </c>
-      <c r="V32" s="64">
-        <v>8</v>
-      </c>
-      <c r="W32" s="56" t="s">
-        <v>12</v>
-      </c>
-      <c r="X32" s="45" t="s">
+    </row>
+    <row r="33" spans="20:26">
+      <c r="T33" s="52" t="s">
+        <v>57</v>
+      </c>
+      <c r="U33" s="38" t="s">
         <v>26</v>
       </c>
-      <c r="Y32" s="64">
-        <v>4</v>
-      </c>
-      <c r="Z32" s="56" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="33" spans="20:26">
-      <c r="T33" s="62" t="s">
-        <v>68</v>
-      </c>
-      <c r="U33" s="44" t="s">
-        <v>26</v>
-      </c>
-      <c r="V33" s="66">
+      <c r="V33" s="56">
         <v>20</v>
       </c>
       <c r="W33" s="34" t="s">
         <v>31</v>
       </c>
-      <c r="X33" s="44" t="s">
+      <c r="X33" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="Y33" s="66">
+      <c r="Y33" s="56">
         <v>16</v>
       </c>
-      <c r="Z33" s="72" t="s">
-        <v>70</v>
+      <c r="Z33" s="59" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="34" spans="20:26">
-      <c r="T34" s="61"/>
-      <c r="U34" s="57" t="s">
-        <v>69</v>
-      </c>
-      <c r="V34" s="65">
+      <c r="T34" s="51"/>
+      <c r="U34" s="49" t="s">
+        <v>58</v>
+      </c>
+      <c r="V34" s="55">
         <v>12</v>
       </c>
-      <c r="W34" s="55" t="s">
+      <c r="W34" s="47" t="s">
         <v>23</v>
       </c>
-      <c r="X34" s="57"/>
-      <c r="Y34" s="65"/>
-      <c r="Z34" s="55"/>
+      <c r="X34" s="49"/>
+      <c r="Y34" s="55"/>
+      <c r="Z34" s="47"/>
     </row>
     <row r="35" spans="20:26">
-      <c r="T35" s="60" t="s">
-        <v>53</v>
-      </c>
-      <c r="U35" s="45" t="s">
+      <c r="T35" s="50" t="s">
+        <v>51</v>
+      </c>
+      <c r="U35" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="V35" s="64">
+      <c r="V35" s="54">
         <v>11</v>
       </c>
-      <c r="W35" s="71" t="s">
-        <v>70</v>
-      </c>
-      <c r="X35" s="45" t="s">
+      <c r="W35" s="58" t="s">
+        <v>59</v>
+      </c>
+      <c r="X35" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="Y35" s="64">
+      <c r="Y35" s="54">
         <v>18</v>
       </c>
-      <c r="Z35" s="56" t="s">
+      <c r="Z35" s="48" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="36" spans="20:26">
-      <c r="T36" s="60"/>
-      <c r="U36" s="45" t="s">
+      <c r="T36" s="50"/>
+      <c r="U36" s="39" t="s">
         <v>25</v>
       </c>
-      <c r="V36" s="64">
+      <c r="V36" s="54">
         <v>24</v>
       </c>
-      <c r="W36" s="56" t="s">
+      <c r="W36" s="48" t="s">
         <v>16</v>
       </c>
-      <c r="X36" s="45"/>
-      <c r="Y36" s="64"/>
-      <c r="Z36" s="56"/>
+      <c r="X36" s="39"/>
+      <c r="Y36" s="54"/>
+      <c r="Z36" s="48"/>
     </row>
     <row r="37" spans="20:26">
-      <c r="T37" s="62" t="s">
-        <v>54</v>
-      </c>
-      <c r="U37" s="44" t="s">
+      <c r="T37" s="52" t="s">
+        <v>52</v>
+      </c>
+      <c r="U37" s="38" t="s">
         <v>25</v>
       </c>
-      <c r="V37" s="66">
+      <c r="V37" s="56">
         <v>20</v>
       </c>
       <c r="W37" s="34" t="s">
         <v>22</v>
       </c>
-      <c r="X37" s="44" t="s">
+      <c r="X37" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="Y37" s="66">
+      <c r="Y37" s="56">
         <v>10</v>
       </c>
       <c r="Z37" s="34" t="s">
@@ -2819,87 +2665,87 @@
       </c>
     </row>
     <row r="38" spans="20:26">
-      <c r="T38" s="61"/>
-      <c r="U38" s="57" t="s">
+      <c r="T38" s="51"/>
+      <c r="U38" s="49" t="s">
         <v>26</v>
       </c>
-      <c r="V38" s="65">
+      <c r="V38" s="55">
         <v>15</v>
       </c>
-      <c r="W38" s="55" t="s">
+      <c r="W38" s="47" t="s">
         <v>31</v>
       </c>
-      <c r="X38" s="57" t="s">
+      <c r="X38" s="49" t="s">
         <v>25</v>
       </c>
-      <c r="Y38" s="65">
+      <c r="Y38" s="55">
         <v>6</v>
       </c>
-      <c r="Z38" s="55" t="s">
+      <c r="Z38" s="47" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="39" spans="20:26">
-      <c r="T39" s="60" t="s">
-        <v>55</v>
-      </c>
-      <c r="U39" s="45" t="s">
+      <c r="T39" s="50" t="s">
+        <v>53</v>
+      </c>
+      <c r="U39" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="V39" s="64">
+      <c r="V39" s="54">
         <v>25</v>
       </c>
-      <c r="W39" s="56" t="s">
+      <c r="W39" s="48" t="s">
         <v>31</v>
       </c>
-      <c r="X39" s="45" t="s">
+      <c r="X39" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="Y39" s="64">
+      <c r="Y39" s="54">
         <v>3</v>
       </c>
-      <c r="Z39" s="71" t="s">
-        <v>70</v>
+      <c r="Z39" s="58" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="40" spans="20:26">
-      <c r="T40" s="60"/>
-      <c r="U40" s="45" t="s">
+      <c r="T40" s="50"/>
+      <c r="U40" s="39" t="s">
         <v>25</v>
       </c>
-      <c r="V40" s="64">
+      <c r="V40" s="54">
         <v>10</v>
       </c>
-      <c r="W40" s="56" t="s">
+      <c r="W40" s="48" t="s">
         <v>22</v>
       </c>
-      <c r="X40" s="45" t="s">
+      <c r="X40" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="Y40" s="64">
+      <c r="Y40" s="54">
         <v>17</v>
       </c>
-      <c r="Z40" s="56" t="s">
-        <v>71</v>
+      <c r="Z40" s="48" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="41" spans="20:26">
-      <c r="T41" s="62" t="s">
-        <v>51</v>
-      </c>
-      <c r="U41" s="44" t="s">
+      <c r="T41" s="52" t="s">
+        <v>50</v>
+      </c>
+      <c r="U41" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="V41" s="66">
+      <c r="V41" s="56">
         <v>30</v>
       </c>
       <c r="W41" s="34" t="s">
         <v>35</v>
       </c>
-      <c r="X41" s="44" t="s">
+      <c r="X41" s="38" t="s">
         <v>26</v>
       </c>
-      <c r="Y41" s="66">
+      <c r="Y41" s="56">
         <v>18</v>
       </c>
       <c r="Z41" s="34" t="s">
@@ -2907,12 +2753,12 @@
       </c>
     </row>
     <row r="42" spans="20:26" ht="15.75" thickBot="1">
-      <c r="T42" s="63"/>
-      <c r="U42" s="46"/>
-      <c r="V42" s="67"/>
+      <c r="T42" s="53"/>
+      <c r="U42" s="40"/>
+      <c r="V42" s="57"/>
       <c r="W42" s="19"/>
-      <c r="X42" s="46"/>
-      <c r="Y42" s="67"/>
+      <c r="X42" s="40"/>
+      <c r="Y42" s="57"/>
       <c r="Z42" s="19"/>
     </row>
     <row r="44" spans="20:26">
@@ -2934,18 +2780,18 @@
     <mergeCell ref="T27:T28"/>
   </mergeCells>
   <conditionalFormatting sqref="Y44">
-    <cfRule type="cellIs" dxfId="7" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
       <formula>$E$28</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="3" operator="notEqual">
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="notEqual">
       <formula>$E$28</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V44">
-    <cfRule type="cellIs" dxfId="4" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>$D$28</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="1" operator="notEqual">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="notEqual">
       <formula>$D$28</formula>
     </cfRule>
   </conditionalFormatting>

--- a/RR/Esterni/Piano di Progetto/RISORSE_3_PDC.xlsx
+++ b/RR/Esterni/Piano di Progetto/RISORSE_3_PDC.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="61">
   <si>
     <t>Task Code</t>
   </si>
@@ -241,7 +241,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="47">
+  <borders count="50">
     <border>
       <left/>
       <right/>
@@ -835,11 +835,50 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="81">
+  <cellXfs count="87">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
@@ -909,12 +948,33 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -927,12 +987,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -942,33 +996,29 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="4">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
     <dxf>
       <font>
         <condense val="0"/>
@@ -997,6 +1047,13 @@
       <fill>
         <patternFill>
           <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1290,10 +1347,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Z44"/>
+  <dimension ref="A1:AD32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="E32" sqref="E32"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="P8" sqref="P8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1320,23 +1377,23 @@
     <col min="26" max="26" width="13.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="15.75" thickBot="1">
+    <row r="1" spans="1:27" ht="15.75" thickBot="1">
       <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="67" t="s">
+      <c r="B1" s="62" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="67" t="s">
+      <c r="D1" s="62" t="s">
         <v>14</v>
       </c>
       <c r="E1" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="F1" s="68" t="s">
+      <c r="F1" s="63" t="s">
         <v>3</v>
       </c>
       <c r="H1" t="s">
@@ -1360,14 +1417,14 @@
       <c r="P1" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="Q1" s="69" t="s">
+      <c r="Q1" s="64" t="s">
         <v>44</v>
       </c>
       <c r="R1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="2" spans="1:18">
+    <row r="2" spans="1:27">
       <c r="A2" s="29" t="s">
         <v>12</v>
       </c>
@@ -1409,18 +1466,18 @@
         <v>6</v>
       </c>
       <c r="P2" s="6">
-        <f>SUM(H2:H109)</f>
-        <v>54</v>
+        <f>SUM(H2:H26)</f>
+        <v>27</v>
       </c>
       <c r="Q2" s="7">
         <f>P2*R2</f>
-        <v>1620</v>
+        <v>810</v>
       </c>
       <c r="R2">
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:18">
+    <row r="3" spans="1:27">
       <c r="A3" s="29"/>
       <c r="B3" s="17"/>
       <c r="C3" s="28" t="s">
@@ -1458,18 +1515,18 @@
         <v>5</v>
       </c>
       <c r="P3" s="1">
-        <f>SUM(I2:I110)</f>
-        <v>22</v>
+        <f>SUM(I2:I26)</f>
+        <v>11</v>
       </c>
       <c r="Q3" s="3">
         <f t="shared" ref="Q3:Q6" si="6">P3*R3</f>
-        <v>440</v>
+        <v>220</v>
       </c>
       <c r="R3">
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:18">
+    <row r="4" spans="1:27">
       <c r="A4" s="2" t="s">
         <v>16</v>
       </c>
@@ -1482,7 +1539,7 @@
       <c r="D4" s="44">
         <v>60</v>
       </c>
-      <c r="E4" s="60"/>
+      <c r="E4" s="59"/>
       <c r="F4" s="30">
         <f t="shared" si="0"/>
         <v>60</v>
@@ -1511,18 +1568,18 @@
         <v>4</v>
       </c>
       <c r="P4" s="1">
-        <f>SUM(J2:J112)</f>
-        <v>208</v>
+        <f>SUM(J2:J26)</f>
+        <v>104</v>
       </c>
       <c r="Q4" s="3">
         <f t="shared" si="6"/>
-        <v>3120</v>
+        <v>1560</v>
       </c>
       <c r="R4">
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:18">
+    <row r="5" spans="1:27" ht="15.75" thickBot="1">
       <c r="A5" s="29" t="s">
         <v>21</v>
       </c>
@@ -1564,18 +1621,18 @@
         <v>24</v>
       </c>
       <c r="P5" s="1">
-        <f>SUM(K2:K113)</f>
-        <v>234</v>
+        <f>SUM(K2:K26)</f>
+        <v>117</v>
       </c>
       <c r="Q5" s="3">
         <f t="shared" si="6"/>
-        <v>5148</v>
+        <v>2574</v>
       </c>
       <c r="R5">
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:18" ht="15.75" thickBot="1">
+    <row r="6" spans="1:27" ht="15.75" thickBot="1">
       <c r="A6" s="29"/>
       <c r="B6" s="17"/>
       <c r="C6" s="28" t="s">
@@ -1623,8 +1680,24 @@
       <c r="R6">
         <v>15</v>
       </c>
+      <c r="T6" s="82" t="s">
+        <v>47</v>
+      </c>
+      <c r="U6" s="78" t="s">
+        <v>14</v>
+      </c>
+      <c r="V6" s="79"/>
+      <c r="W6" s="80"/>
+      <c r="X6" s="78" t="s">
+        <v>15</v>
+      </c>
+      <c r="Y6" s="79"/>
+      <c r="Z6" s="81"/>
+      <c r="AA6" s="82" t="s">
+        <v>46</v>
+      </c>
     </row>
-    <row r="7" spans="1:18" ht="15.75" thickBot="1">
+    <row r="7" spans="1:27" ht="15.75" thickBot="1">
       <c r="A7" s="2" t="s">
         <v>22</v>
       </c>
@@ -1637,7 +1710,7 @@
       <c r="D7" s="44">
         <v>30</v>
       </c>
-      <c r="E7" s="60"/>
+      <c r="E7" s="59"/>
       <c r="F7" s="30">
         <f t="shared" si="0"/>
         <v>30</v>
@@ -1667,14 +1740,34 @@
       </c>
       <c r="P7" s="15">
         <f>SUM(P2:P6)</f>
-        <v>718</v>
+        <v>459</v>
       </c>
       <c r="Q7" s="16">
         <f>SUM(Q2:Q6)</f>
-        <v>13328</v>
-      </c>
+        <v>8164</v>
+      </c>
+      <c r="T7" s="83"/>
+      <c r="U7" s="65" t="s">
+        <v>7</v>
+      </c>
+      <c r="V7" s="66" t="s">
+        <v>55</v>
+      </c>
+      <c r="W7" s="67" t="s">
+        <v>56</v>
+      </c>
+      <c r="X7" s="65" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y7" s="66" t="s">
+        <v>55</v>
+      </c>
+      <c r="Z7" s="71" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA7" s="83"/>
     </row>
-    <row r="8" spans="1:18">
+    <row r="8" spans="1:27">
       <c r="A8" s="29" t="s">
         <v>23</v>
       </c>
@@ -1712,8 +1805,34 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
+      <c r="P8" s="70"/>
+      <c r="T8" s="50" t="s">
+        <v>48</v>
+      </c>
+      <c r="U8" s="39" t="s">
+        <v>25</v>
+      </c>
+      <c r="V8" s="54">
+        <v>36</v>
+      </c>
+      <c r="W8" s="48" t="s">
+        <v>16</v>
+      </c>
+      <c r="X8" s="39" t="s">
+        <v>10</v>
+      </c>
+      <c r="Y8" s="54">
+        <v>10</v>
+      </c>
+      <c r="Z8" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="AA8" s="86">
+        <f>SUM(V8:V9,Y8:Y9)</f>
+        <v>52</v>
+      </c>
     </row>
-    <row r="9" spans="1:18">
+    <row r="9" spans="1:27">
       <c r="A9" s="29"/>
       <c r="B9" s="17"/>
       <c r="C9" s="28" t="s">
@@ -1747,8 +1866,22 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
+      <c r="T9" s="51"/>
+      <c r="U9" s="49"/>
+      <c r="V9" s="55"/>
+      <c r="W9" s="47"/>
+      <c r="X9" s="49" t="s">
+        <v>25</v>
+      </c>
+      <c r="Y9" s="55">
+        <v>6</v>
+      </c>
+      <c r="Z9" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="AA9" s="84"/>
     </row>
-    <row r="10" spans="1:18">
+    <row r="10" spans="1:27">
       <c r="A10" s="11" t="s">
         <v>27</v>
       </c>
@@ -1759,7 +1892,7 @@
         <v>24</v>
       </c>
       <c r="D10" s="45"/>
-      <c r="E10" s="61">
+      <c r="E10" s="60">
         <v>15</v>
       </c>
       <c r="F10" s="31">
@@ -1786,8 +1919,33 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
+      <c r="T10" s="50" t="s">
+        <v>49</v>
+      </c>
+      <c r="U10" s="39" t="s">
+        <v>10</v>
+      </c>
+      <c r="V10" s="54">
+        <v>25</v>
+      </c>
+      <c r="W10" s="48" t="s">
+        <v>21</v>
+      </c>
+      <c r="X10" s="39" t="s">
+        <v>25</v>
+      </c>
+      <c r="Y10" s="54">
+        <v>15</v>
+      </c>
+      <c r="Z10" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="AA10" s="84">
+        <f t="shared" ref="AA10" si="7">SUM(V10:V11,Y10:Y11)</f>
+        <v>52</v>
+      </c>
     </row>
-    <row r="11" spans="1:18" ht="15.75" thickBot="1">
+    <row r="11" spans="1:27" ht="15.75" thickBot="1">
       <c r="A11" s="11" t="s">
         <v>28</v>
       </c>
@@ -1798,11 +1956,11 @@
         <v>4</v>
       </c>
       <c r="D11" s="45"/>
-      <c r="E11" s="61">
+      <c r="E11" s="60">
         <v>5</v>
       </c>
       <c r="F11" s="31">
-        <f t="shared" ref="F11:F26" si="7">SUM(D11:E11)</f>
+        <f t="shared" ref="F11:F26" si="8">SUM(D11:E11)</f>
         <v>5</v>
       </c>
       <c r="H11">
@@ -1825,19 +1983,39 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
+      <c r="T11" s="50"/>
+      <c r="U11" s="39" t="s">
+        <v>9</v>
+      </c>
+      <c r="V11" s="54">
+        <v>8</v>
+      </c>
+      <c r="W11" s="48" t="s">
+        <v>12</v>
+      </c>
+      <c r="X11" s="39" t="s">
+        <v>26</v>
+      </c>
+      <c r="Y11" s="54">
+        <v>4</v>
+      </c>
+      <c r="Z11" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA11" s="84"/>
     </row>
-    <row r="12" spans="1:18">
+    <row r="12" spans="1:27">
       <c r="A12" s="5"/>
       <c r="B12" s="27"/>
       <c r="C12" s="6" t="s">
         <v>6</v>
       </c>
       <c r="D12" s="46"/>
-      <c r="E12" s="62">
+      <c r="E12" s="61">
         <v>1</v>
       </c>
       <c r="F12" s="32">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="H12">
@@ -1860,11 +2038,36 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="O12" s="65"/>
-      <c r="P12" s="63"/>
-      <c r="Q12" s="64"/>
+      <c r="O12" s="76"/>
+      <c r="P12" s="74"/>
+      <c r="Q12" s="75"/>
+      <c r="T12" s="52" t="s">
+        <v>57</v>
+      </c>
+      <c r="U12" s="38" t="s">
+        <v>26</v>
+      </c>
+      <c r="V12" s="56">
+        <v>20</v>
+      </c>
+      <c r="W12" s="34" t="s">
+        <v>31</v>
+      </c>
+      <c r="X12" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y12" s="56">
+        <v>16</v>
+      </c>
+      <c r="Z12" s="72" t="s">
+        <v>59</v>
+      </c>
+      <c r="AA12" s="84">
+        <f t="shared" ref="AA12" si="9">SUM(V12:V13,Y12:Y13)</f>
+        <v>48</v>
+      </c>
     </row>
-    <row r="13" spans="1:18" ht="15.75" thickBot="1">
+    <row r="13" spans="1:27" ht="15.75" thickBot="1">
       <c r="A13" s="2" t="s">
         <v>31</v>
       </c>
@@ -1877,9 +2080,9 @@
       <c r="D13" s="44">
         <v>60</v>
       </c>
-      <c r="E13" s="60"/>
+      <c r="E13" s="59"/>
       <c r="F13" s="30">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>60</v>
       </c>
       <c r="H13">
@@ -1902,11 +2105,25 @@
         <f t="shared" si="5"/>
         <v>60</v>
       </c>
-      <c r="O13" s="66"/>
+      <c r="O13" s="77"/>
       <c r="P13" s="4"/>
       <c r="Q13" s="21"/>
+      <c r="T13" s="51"/>
+      <c r="U13" s="49" t="s">
+        <v>58</v>
+      </c>
+      <c r="V13" s="55">
+        <v>12</v>
+      </c>
+      <c r="W13" s="47" t="s">
+        <v>23</v>
+      </c>
+      <c r="X13" s="49"/>
+      <c r="Y13" s="55"/>
+      <c r="Z13" s="27"/>
+      <c r="AA13" s="84"/>
     </row>
-    <row r="14" spans="1:18">
+    <row r="14" spans="1:27">
       <c r="A14" s="29" t="s">
         <v>35</v>
       </c>
@@ -1921,7 +2138,7 @@
       </c>
       <c r="E14" s="36"/>
       <c r="F14" s="24">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>30</v>
       </c>
       <c r="H14">
@@ -1947,8 +2164,33 @@
       <c r="O14" s="5"/>
       <c r="P14" s="6"/>
       <c r="Q14" s="23"/>
+      <c r="T14" s="50" t="s">
+        <v>51</v>
+      </c>
+      <c r="U14" s="39" t="s">
+        <v>8</v>
+      </c>
+      <c r="V14" s="54">
+        <v>11</v>
+      </c>
+      <c r="W14" s="58" t="s">
+        <v>59</v>
+      </c>
+      <c r="X14" s="39" t="s">
+        <v>26</v>
+      </c>
+      <c r="Y14" s="54">
+        <v>18</v>
+      </c>
+      <c r="Z14" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA14" s="84">
+        <f t="shared" ref="AA14" si="10">SUM(V14:V15,Y14:Y15)</f>
+        <v>53</v>
+      </c>
     </row>
-    <row r="15" spans="1:18">
+    <row r="15" spans="1:27">
       <c r="A15" s="33"/>
       <c r="B15" s="17"/>
       <c r="C15" s="28" t="s">
@@ -1959,19 +2201,19 @@
       </c>
       <c r="E15" s="36"/>
       <c r="F15" s="24">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>3</v>
       </c>
       <c r="H15">
-        <f t="shared" ref="H15:H20" si="8">IF($C15="Responsabile",$F15,0)</f>
+        <f t="shared" ref="H15:H20" si="11">IF($C15="Responsabile",$F15,0)</f>
         <v>3</v>
       </c>
       <c r="I15">
-        <f t="shared" ref="I15:I20" si="9">IF($C15="Amministratore",$F15,0)</f>
+        <f t="shared" ref="I15:I20" si="12">IF($C15="Amministratore",$F15,0)</f>
         <v>0</v>
       </c>
       <c r="J15">
-        <f t="shared" ref="J15:J20" si="10">IF($C15="Verificatore",$F15,0)</f>
+        <f t="shared" ref="J15:J20" si="13">IF($C15="Verificatore",$F15,0)</f>
         <v>0</v>
       </c>
       <c r="K15">
@@ -1985,8 +2227,22 @@
       <c r="O15" s="2"/>
       <c r="P15" s="1"/>
       <c r="Q15" s="20"/>
+      <c r="T15" s="50"/>
+      <c r="U15" s="39" t="s">
+        <v>25</v>
+      </c>
+      <c r="V15" s="54">
+        <v>24</v>
+      </c>
+      <c r="W15" s="48" t="s">
+        <v>16</v>
+      </c>
+      <c r="X15" s="39"/>
+      <c r="Y15" s="54"/>
+      <c r="Z15" s="17"/>
+      <c r="AA15" s="84"/>
     </row>
-    <row r="16" spans="1:18">
+    <row r="16" spans="1:27">
       <c r="A16" s="2" t="s">
         <v>36</v>
       </c>
@@ -1997,23 +2253,23 @@
         <v>33</v>
       </c>
       <c r="D16" s="44"/>
-      <c r="E16" s="60">
+      <c r="E16" s="59">
         <v>40</v>
       </c>
       <c r="F16" s="30">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>40</v>
       </c>
       <c r="H16">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="I16">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="J16">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="K16">
@@ -2027,8 +2283,33 @@
       <c r="O16" s="2"/>
       <c r="P16" s="1"/>
       <c r="Q16" s="20"/>
+      <c r="T16" s="52" t="s">
+        <v>52</v>
+      </c>
+      <c r="U16" s="38" t="s">
+        <v>25</v>
+      </c>
+      <c r="V16" s="56">
+        <v>20</v>
+      </c>
+      <c r="W16" s="34" t="s">
+        <v>22</v>
+      </c>
+      <c r="X16" s="38" t="s">
+        <v>10</v>
+      </c>
+      <c r="Y16" s="56">
+        <v>10</v>
+      </c>
+      <c r="Z16" s="26" t="s">
+        <v>37</v>
+      </c>
+      <c r="AA16" s="84">
+        <f t="shared" ref="AA16" si="14">SUM(V16:V17,Y16:Y17)</f>
+        <v>51</v>
+      </c>
     </row>
-    <row r="17" spans="1:26">
+    <row r="17" spans="1:30">
       <c r="A17" s="29" t="s">
         <v>37</v>
       </c>
@@ -2043,19 +2324,19 @@
         <v>20</v>
       </c>
       <c r="F17" s="24">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>20</v>
       </c>
       <c r="H17">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="I17">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="J17">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>20</v>
       </c>
       <c r="K17">
@@ -2069,8 +2350,28 @@
       <c r="O17" s="2"/>
       <c r="P17" s="1"/>
       <c r="Q17" s="20"/>
+      <c r="T17" s="51"/>
+      <c r="U17" s="49" t="s">
+        <v>26</v>
+      </c>
+      <c r="V17" s="55">
+        <v>15</v>
+      </c>
+      <c r="W17" s="47" t="s">
+        <v>31</v>
+      </c>
+      <c r="X17" s="49" t="s">
+        <v>25</v>
+      </c>
+      <c r="Y17" s="55">
+        <v>6</v>
+      </c>
+      <c r="Z17" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="AA17" s="84"/>
     </row>
-    <row r="18" spans="1:26">
+    <row r="18" spans="1:30">
       <c r="A18" s="29"/>
       <c r="B18" s="17"/>
       <c r="C18" s="28" t="s">
@@ -2081,19 +2382,19 @@
         <v>2</v>
       </c>
       <c r="F18" s="24">
-        <f t="shared" si="7"/>
-        <v>2</v>
-      </c>
-      <c r="H18">
         <f t="shared" si="8"/>
         <v>2</v>
       </c>
+      <c r="H18">
+        <f t="shared" si="11"/>
+        <v>2</v>
+      </c>
       <c r="I18">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="J18">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="K18">
@@ -2107,8 +2408,33 @@
       <c r="O18" s="2"/>
       <c r="P18" s="1"/>
       <c r="Q18" s="20"/>
+      <c r="T18" s="50" t="s">
+        <v>53</v>
+      </c>
+      <c r="U18" s="39" t="s">
+        <v>26</v>
+      </c>
+      <c r="V18" s="54">
+        <v>25</v>
+      </c>
+      <c r="W18" s="48" t="s">
+        <v>31</v>
+      </c>
+      <c r="X18" s="39" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y18" s="54">
+        <v>3</v>
+      </c>
+      <c r="Z18" s="73" t="s">
+        <v>59</v>
+      </c>
+      <c r="AA18" s="84">
+        <f t="shared" ref="AA18" si="15">SUM(V18:V19,Y18:Y19)</f>
+        <v>55</v>
+      </c>
     </row>
-    <row r="19" spans="1:26">
+    <row r="19" spans="1:30">
       <c r="A19" s="11" t="s">
         <v>38</v>
       </c>
@@ -2119,23 +2445,23 @@
         <v>4</v>
       </c>
       <c r="D19" s="26"/>
-      <c r="E19" s="61">
+      <c r="E19" s="60">
         <v>4</v>
       </c>
       <c r="F19" s="31">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>4</v>
       </c>
       <c r="H19">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="I19">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="J19">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>4</v>
       </c>
       <c r="K19">
@@ -2149,31 +2475,51 @@
       <c r="O19" s="2"/>
       <c r="P19" s="1"/>
       <c r="Q19" s="20"/>
+      <c r="T19" s="50"/>
+      <c r="U19" s="39" t="s">
+        <v>25</v>
+      </c>
+      <c r="V19" s="54">
+        <v>10</v>
+      </c>
+      <c r="W19" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="X19" s="39" t="s">
+        <v>10</v>
+      </c>
+      <c r="Y19" s="54">
+        <v>17</v>
+      </c>
+      <c r="Z19" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="AA19" s="84"/>
     </row>
-    <row r="20" spans="1:26" ht="15.75" thickBot="1">
+    <row r="20" spans="1:30" ht="15.75" thickBot="1">
       <c r="A20" s="5"/>
       <c r="B20" s="27"/>
       <c r="C20" s="6" t="s">
         <v>6</v>
       </c>
       <c r="D20" s="27"/>
-      <c r="E20" s="62">
+      <c r="E20" s="61">
         <v>8</v>
       </c>
       <c r="F20" s="32">
-        <f t="shared" si="7"/>
-        <v>8</v>
-      </c>
-      <c r="H20">
         <f t="shared" si="8"/>
         <v>8</v>
       </c>
+      <c r="H20">
+        <f t="shared" si="11"/>
+        <v>8</v>
+      </c>
       <c r="I20">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="J20">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="K20">
@@ -2187,8 +2533,33 @@
       <c r="O20" s="11"/>
       <c r="P20" s="12"/>
       <c r="Q20" s="22"/>
+      <c r="T20" s="52" t="s">
+        <v>50</v>
+      </c>
+      <c r="U20" s="38" t="s">
+        <v>10</v>
+      </c>
+      <c r="V20" s="56">
+        <v>30</v>
+      </c>
+      <c r="W20" s="34" t="s">
+        <v>35</v>
+      </c>
+      <c r="X20" s="38" t="s">
+        <v>26</v>
+      </c>
+      <c r="Y20" s="56">
+        <v>18</v>
+      </c>
+      <c r="Z20" s="26" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA20" s="84">
+        <f t="shared" ref="AA20" si="16">SUM(V20:V21,Y20:Y21)</f>
+        <v>48</v>
+      </c>
     </row>
-    <row r="21" spans="1:26" ht="15.75" thickBot="1">
+    <row r="21" spans="1:30" ht="15.75" thickBot="1">
       <c r="A21" s="29" t="s">
         <v>40</v>
       </c>
@@ -2203,7 +2574,7 @@
         <v>4</v>
       </c>
       <c r="F21" s="24">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>4</v>
       </c>
       <c r="H21">
@@ -2229,8 +2600,16 @@
       <c r="O21" s="8"/>
       <c r="P21" s="9"/>
       <c r="Q21" s="10"/>
+      <c r="T21" s="53"/>
+      <c r="U21" s="40"/>
+      <c r="V21" s="57"/>
+      <c r="W21" s="19"/>
+      <c r="X21" s="40"/>
+      <c r="Y21" s="57"/>
+      <c r="Z21" s="18"/>
+      <c r="AA21" s="85"/>
     </row>
-    <row r="22" spans="1:26">
+    <row r="22" spans="1:30">
       <c r="A22" s="29"/>
       <c r="B22" s="17"/>
       <c r="C22" s="28" t="s">
@@ -2241,7 +2620,7 @@
         <v>1</v>
       </c>
       <c r="F22" s="24">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="H22">
@@ -2265,7 +2644,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:26">
+    <row r="23" spans="1:30">
       <c r="A23" s="38" t="s">
         <v>42</v>
       </c>
@@ -2276,11 +2655,11 @@
         <v>24</v>
       </c>
       <c r="D23" s="26"/>
-      <c r="E23" s="61">
+      <c r="E23" s="60">
         <v>12</v>
       </c>
       <c r="F23" s="34">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>12</v>
       </c>
       <c r="H23">
@@ -2304,7 +2683,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:26">
+    <row r="24" spans="1:30">
       <c r="A24" s="39"/>
       <c r="B24" s="28"/>
       <c r="C24" s="36" t="s">
@@ -2315,7 +2694,7 @@
         <v>8</v>
       </c>
       <c r="F24" s="37">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>8</v>
       </c>
       <c r="H24">
@@ -2338,8 +2717,16 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
+      <c r="V24">
+        <f>SUM(V8:V20)</f>
+        <v>236</v>
+      </c>
+      <c r="Y24">
+        <f>SUM(Y8:Y21)</f>
+        <v>123</v>
+      </c>
     </row>
-    <row r="25" spans="1:26">
+    <row r="25" spans="1:30">
       <c r="A25" s="39"/>
       <c r="B25" s="28"/>
       <c r="C25" s="36" t="s">
@@ -2350,7 +2737,7 @@
         <v>2</v>
       </c>
       <c r="F25" s="37">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>2</v>
       </c>
       <c r="H25">
@@ -2374,7 +2761,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:26" ht="15.75" thickBot="1">
+    <row r="26" spans="1:30" ht="15.75" thickBot="1">
       <c r="A26" s="40"/>
       <c r="B26" s="35"/>
       <c r="C26" s="41" t="s">
@@ -2385,7 +2772,7 @@
         <v>1</v>
       </c>
       <c r="F26" s="42">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="H26">
@@ -2408,37 +2795,24 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
+      <c r="AD26" s="70"/>
     </row>
-    <row r="27" spans="1:26" ht="15.75" thickBot="1">
-      <c r="T27" s="70" t="s">
-        <v>47</v>
-      </c>
-      <c r="U27" s="71" t="s">
-        <v>14</v>
-      </c>
-      <c r="V27" s="72"/>
-      <c r="W27" s="73"/>
-      <c r="X27" s="71" t="s">
-        <v>15</v>
-      </c>
-      <c r="Y27" s="72"/>
-      <c r="Z27" s="73"/>
-    </row>
-    <row r="28" spans="1:26" ht="15.75" thickBot="1">
-      <c r="A28" s="78" t="s">
+    <row r="27" spans="1:30" ht="15.75" thickBot="1"/>
+    <row r="28" spans="1:30" ht="15.75" thickBot="1">
+      <c r="A28" s="68" t="s">
         <v>54</v>
       </c>
-      <c r="B28" s="67"/>
-      <c r="C28" s="67"/>
-      <c r="D28" s="79">
+      <c r="B28" s="62"/>
+      <c r="C28" s="62"/>
+      <c r="D28" s="69">
         <f>SUM(D2:D26)</f>
         <v>236</v>
       </c>
-      <c r="E28" s="67">
+      <c r="E28" s="62">
         <f>SUM(E2:E26)</f>
         <v>123</v>
       </c>
-      <c r="F28" s="79">
+      <c r="F28" s="69">
         <f>SUM(D28:E28)</f>
         <v>359</v>
       </c>
@@ -2447,356 +2821,59 @@
         <v>27</v>
       </c>
       <c r="I28">
-        <f t="shared" ref="I28:L28" si="11">SUM(I2:I26)</f>
+        <f t="shared" ref="I28:L28" si="17">SUM(I2:I26)</f>
         <v>11</v>
       </c>
       <c r="J28">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>104</v>
       </c>
       <c r="K28">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>117</v>
       </c>
       <c r="L28">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>100</v>
       </c>
-      <c r="T28" s="74"/>
-      <c r="U28" s="75" t="s">
-        <v>7</v>
-      </c>
-      <c r="V28" s="76" t="s">
-        <v>55</v>
-      </c>
-      <c r="W28" s="77" t="s">
-        <v>56</v>
-      </c>
-      <c r="X28" s="75" t="s">
-        <v>7</v>
-      </c>
-      <c r="Y28" s="76" t="s">
-        <v>55</v>
-      </c>
-      <c r="Z28" s="77" t="s">
-        <v>56</v>
-      </c>
     </row>
-    <row r="29" spans="1:26">
-      <c r="T29" s="50" t="s">
-        <v>48</v>
-      </c>
-      <c r="U29" s="39" t="s">
-        <v>25</v>
-      </c>
-      <c r="V29" s="54">
-        <v>36</v>
-      </c>
-      <c r="W29" s="48" t="s">
-        <v>16</v>
-      </c>
-      <c r="X29" s="39" t="s">
-        <v>10</v>
-      </c>
-      <c r="Y29" s="54">
-        <v>10</v>
-      </c>
-      <c r="Z29" s="48" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="30" spans="1:26">
-      <c r="T30" s="51"/>
-      <c r="U30" s="49"/>
-      <c r="V30" s="55"/>
-      <c r="W30" s="47"/>
-      <c r="X30" s="49" t="s">
-        <v>25</v>
-      </c>
-      <c r="Y30" s="55">
-        <v>6</v>
-      </c>
-      <c r="Z30" s="47" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="31" spans="1:26">
-      <c r="T31" s="50" t="s">
-        <v>49</v>
-      </c>
-      <c r="U31" s="39" t="s">
-        <v>10</v>
-      </c>
-      <c r="V31" s="54">
-        <v>25</v>
-      </c>
-      <c r="W31" s="48" t="s">
-        <v>21</v>
-      </c>
-      <c r="X31" s="39" t="s">
-        <v>25</v>
-      </c>
-      <c r="Y31" s="54">
-        <v>15</v>
-      </c>
-      <c r="Z31" s="48" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="32" spans="1:26">
-      <c r="E32" s="80"/>
-      <c r="T32" s="50"/>
-      <c r="U32" s="39" t="s">
-        <v>9</v>
-      </c>
-      <c r="V32" s="54">
-        <v>8</v>
-      </c>
-      <c r="W32" s="48" t="s">
-        <v>12</v>
-      </c>
-      <c r="X32" s="39" t="s">
-        <v>26</v>
-      </c>
-      <c r="Y32" s="54">
-        <v>4</v>
-      </c>
-      <c r="Z32" s="48" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="33" spans="20:26">
-      <c r="T33" s="52" t="s">
-        <v>57</v>
-      </c>
-      <c r="U33" s="38" t="s">
-        <v>26</v>
-      </c>
-      <c r="V33" s="56">
-        <v>20</v>
-      </c>
-      <c r="W33" s="34" t="s">
-        <v>31</v>
-      </c>
-      <c r="X33" s="38" t="s">
-        <v>8</v>
-      </c>
-      <c r="Y33" s="56">
-        <v>16</v>
-      </c>
-      <c r="Z33" s="59" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="34" spans="20:26">
-      <c r="T34" s="51"/>
-      <c r="U34" s="49" t="s">
-        <v>58</v>
-      </c>
-      <c r="V34" s="55">
-        <v>12</v>
-      </c>
-      <c r="W34" s="47" t="s">
-        <v>23</v>
-      </c>
-      <c r="X34" s="49"/>
-      <c r="Y34" s="55"/>
-      <c r="Z34" s="47"/>
-    </row>
-    <row r="35" spans="20:26">
-      <c r="T35" s="50" t="s">
-        <v>51</v>
-      </c>
-      <c r="U35" s="39" t="s">
-        <v>8</v>
-      </c>
-      <c r="V35" s="54">
-        <v>11</v>
-      </c>
-      <c r="W35" s="58" t="s">
-        <v>59</v>
-      </c>
-      <c r="X35" s="39" t="s">
-        <v>26</v>
-      </c>
-      <c r="Y35" s="54">
-        <v>18</v>
-      </c>
-      <c r="Z35" s="48" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="36" spans="20:26">
-      <c r="T36" s="50"/>
-      <c r="U36" s="39" t="s">
-        <v>25</v>
-      </c>
-      <c r="V36" s="54">
-        <v>24</v>
-      </c>
-      <c r="W36" s="48" t="s">
-        <v>16</v>
-      </c>
-      <c r="X36" s="39"/>
-      <c r="Y36" s="54"/>
-      <c r="Z36" s="48"/>
-    </row>
-    <row r="37" spans="20:26">
-      <c r="T37" s="52" t="s">
-        <v>52</v>
-      </c>
-      <c r="U37" s="38" t="s">
-        <v>25</v>
-      </c>
-      <c r="V37" s="56">
-        <v>20</v>
-      </c>
-      <c r="W37" s="34" t="s">
-        <v>22</v>
-      </c>
-      <c r="X37" s="38" t="s">
-        <v>10</v>
-      </c>
-      <c r="Y37" s="56">
-        <v>10</v>
-      </c>
-      <c r="Z37" s="34" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="38" spans="20:26">
-      <c r="T38" s="51"/>
-      <c r="U38" s="49" t="s">
-        <v>26</v>
-      </c>
-      <c r="V38" s="55">
-        <v>15</v>
-      </c>
-      <c r="W38" s="47" t="s">
-        <v>31</v>
-      </c>
-      <c r="X38" s="49" t="s">
-        <v>25</v>
-      </c>
-      <c r="Y38" s="55">
-        <v>6</v>
-      </c>
-      <c r="Z38" s="47" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="39" spans="20:26">
-      <c r="T39" s="50" t="s">
-        <v>53</v>
-      </c>
-      <c r="U39" s="39" t="s">
-        <v>26</v>
-      </c>
-      <c r="V39" s="54">
-        <v>25</v>
-      </c>
-      <c r="W39" s="48" t="s">
-        <v>31</v>
-      </c>
-      <c r="X39" s="39" t="s">
-        <v>9</v>
-      </c>
-      <c r="Y39" s="54">
-        <v>3</v>
-      </c>
-      <c r="Z39" s="58" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="40" spans="20:26">
-      <c r="T40" s="50"/>
-      <c r="U40" s="39" t="s">
-        <v>25</v>
-      </c>
-      <c r="V40" s="54">
-        <v>10</v>
-      </c>
-      <c r="W40" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="X40" s="39" t="s">
-        <v>10</v>
-      </c>
-      <c r="Y40" s="54">
-        <v>17</v>
-      </c>
-      <c r="Z40" s="48" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="41" spans="20:26">
-      <c r="T41" s="52" t="s">
-        <v>50</v>
-      </c>
-      <c r="U41" s="38" t="s">
-        <v>10</v>
-      </c>
-      <c r="V41" s="56">
-        <v>30</v>
-      </c>
-      <c r="W41" s="34" t="s">
-        <v>35</v>
-      </c>
-      <c r="X41" s="38" t="s">
-        <v>26</v>
-      </c>
-      <c r="Y41" s="56">
-        <v>18</v>
-      </c>
-      <c r="Z41" s="34" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="42" spans="20:26" ht="15.75" thickBot="1">
-      <c r="T42" s="53"/>
-      <c r="U42" s="40"/>
-      <c r="V42" s="57"/>
-      <c r="W42" s="19"/>
-      <c r="X42" s="40"/>
-      <c r="Y42" s="57"/>
-      <c r="Z42" s="19"/>
-    </row>
-    <row r="44" spans="20:26">
-      <c r="V44">
-        <f>SUM(V29:V41)</f>
-        <v>236</v>
-      </c>
-      <c r="Y44">
-        <f>SUM(Y29:Y42)</f>
-        <v>123</v>
-      </c>
+    <row r="32" spans="1:30">
+      <c r="E32" s="70"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="13">
+    <mergeCell ref="AA16:AA17"/>
+    <mergeCell ref="AA18:AA19"/>
+    <mergeCell ref="AA20:AA21"/>
+    <mergeCell ref="AA6:AA7"/>
+    <mergeCell ref="AA8:AA9"/>
+    <mergeCell ref="AA10:AA11"/>
+    <mergeCell ref="AA12:AA13"/>
+    <mergeCell ref="AA14:AA15"/>
     <mergeCell ref="P12:Q12"/>
     <mergeCell ref="O12:O13"/>
-    <mergeCell ref="U27:W27"/>
-    <mergeCell ref="X27:Z27"/>
-    <mergeCell ref="T27:T28"/>
+    <mergeCell ref="U6:W6"/>
+    <mergeCell ref="X6:Z6"/>
+    <mergeCell ref="T6:T7"/>
   </mergeCells>
-  <conditionalFormatting sqref="Y44">
-    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
+  <conditionalFormatting sqref="Y24">
+    <cfRule type="cellIs" dxfId="3" priority="3" operator="notEqual">
       <formula>$E$28</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="notEqual">
+    <cfRule type="cellIs" dxfId="2" priority="4" operator="equal">
       <formula>$E$28</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="V44">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+  <conditionalFormatting sqref="V24">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="notEqual">
       <formula>$D$28</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="notEqual">
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
       <formula>$D$28</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 
